--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Protean eGov Technologies Ltd/Pruned_Excel/Semi_Final/Protean eGov Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Protean eGov Technologies Ltd/Pruned_Excel/Semi_Final/Protean eGov Technologies Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>Balance Sheet of Protean eGov Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,19 +62,22 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Protean eGov Technologies(in Rs. Cr.)</t>
@@ -170,9 +176,6 @@
     <t>Quarterly Results of Protean eGov Technologies(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -230,15 +233,6 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>Q1</t>
@@ -672,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,209 +709,227 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>40.01</v>
-      </c>
-      <c r="C2">
-        <v>713.79</v>
       </c>
       <c r="D2">
         <v>713.79</v>
       </c>
       <c r="E2">
+        <v>713.79</v>
+      </c>
+      <c r="F2">
         <v>753.8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>58.26</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>176.07</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>940.35</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>63.16</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>68.98</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>506.35</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>434</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>940.35</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>40.14</v>
-      </c>
-      <c r="C3">
-        <v>628.16</v>
       </c>
       <c r="D3">
         <v>628.16</v>
       </c>
       <c r="E3">
+        <v>628.16</v>
+      </c>
+      <c r="F3">
         <v>668.3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>69.3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>171.48</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>863.2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>55.49</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>58.24</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>395.61</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>467.59</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>863.2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>40.38</v>
-      </c>
-      <c r="C4">
-        <v>748.3099999999999</v>
       </c>
       <c r="D4">
         <v>748.3099999999999</v>
       </c>
       <c r="E4">
+        <v>748.3099999999999</v>
+      </c>
+      <c r="F4">
         <v>788.6900000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>74.69</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>175.61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>988.77</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>62.86</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>69.03</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>458.37</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>530.4</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>988.77</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>40.42</v>
-      </c>
-      <c r="C5">
-        <v>817.72</v>
       </c>
       <c r="D5">
         <v>817.72</v>
       </c>
       <c r="E5">
+        <v>817.72</v>
+      </c>
+      <c r="F5">
         <v>858.14</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>89.68000000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>227.26</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1104.79</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>59.69</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>74.03</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>706.87</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>397.92</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1104.79</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>40.45</v>
-      </c>
-      <c r="C6">
-        <v>889.8200000000001</v>
       </c>
       <c r="D6">
         <v>889.8200000000001</v>
       </c>
       <c r="E6">
+        <v>889.8200000000001</v>
+      </c>
+      <c r="F6">
         <v>930.27</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>94.84999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>223.08</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1188.82</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>65.12</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>96.58</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>758.8</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>430.02</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1188.82</v>
       </c>
     </row>
@@ -931,183 +940,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>157.27</v>
+      </c>
+      <c r="D2">
+        <v>53.78</v>
+      </c>
+      <c r="E2">
+        <v>-12.87</v>
+      </c>
+      <c r="F2">
+        <v>-39.31</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.6</v>
+      </c>
+      <c r="I2">
+        <v>39.39</v>
+      </c>
+      <c r="J2">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>115.88</v>
+      </c>
+      <c r="D3">
+        <v>100.31</v>
+      </c>
+      <c r="E3">
+        <v>112.48</v>
+      </c>
+      <c r="F3">
+        <v>-183.32</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>29.47</v>
+      </c>
+      <c r="I3">
+        <v>40.99</v>
+      </c>
+      <c r="J3">
+        <v>70.45999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>185.53</v>
+      </c>
+      <c r="D4">
+        <v>94.52</v>
+      </c>
+      <c r="E4">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F4">
+        <v>-33.63</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>135.79</v>
+      </c>
+      <c r="I4">
+        <v>70.45999999999999</v>
+      </c>
+      <c r="J4">
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>140.93</v>
+      </c>
+      <c r="D5">
+        <v>138.14</v>
+      </c>
+      <c r="E5">
+        <v>-283.03</v>
+      </c>
+      <c r="F5">
+        <v>-44.29</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-189.18</v>
+      </c>
+      <c r="I5">
+        <v>206.25</v>
+      </c>
+      <c r="J5">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>157.27</v>
-      </c>
-      <c r="C2">
-        <v>53.78</v>
-      </c>
-      <c r="D2">
-        <v>-12.87</v>
-      </c>
-      <c r="E2">
-        <v>-39.31</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1.6</v>
-      </c>
-      <c r="H2">
-        <v>39.39</v>
-      </c>
-      <c r="I2">
-        <v>40.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>115.88</v>
-      </c>
-      <c r="C3">
-        <v>100.31</v>
-      </c>
-      <c r="D3">
-        <v>112.48</v>
-      </c>
-      <c r="E3">
-        <v>-183.32</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>29.47</v>
-      </c>
-      <c r="H3">
-        <v>40.99</v>
-      </c>
-      <c r="I3">
-        <v>70.45999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>185.53</v>
-      </c>
-      <c r="C4">
-        <v>94.52</v>
-      </c>
-      <c r="D4">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E4">
-        <v>-33.63</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>135.79</v>
-      </c>
-      <c r="H4">
-        <v>70.45999999999999</v>
-      </c>
-      <c r="I4">
-        <v>206.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>140.93</v>
-      </c>
-      <c r="C5">
-        <v>138.14</v>
-      </c>
-      <c r="D5">
-        <v>-283.03</v>
-      </c>
-      <c r="E5">
-        <v>-44.29</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-189.18</v>
-      </c>
-      <c r="H5">
-        <v>206.25</v>
-      </c>
-      <c r="I5">
+      <c r="C6">
+        <v>130.92</v>
+      </c>
+      <c r="D6">
+        <v>60.03</v>
+      </c>
+      <c r="E6">
+        <v>15.95</v>
+      </c>
+      <c r="F6">
+        <v>-47.45</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>28.53</v>
+      </c>
+      <c r="I6">
         <v>17.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>130.92</v>
-      </c>
-      <c r="C6">
-        <v>60.03</v>
-      </c>
-      <c r="D6">
-        <v>15.95</v>
-      </c>
-      <c r="E6">
-        <v>-47.45</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>28.53</v>
-      </c>
-      <c r="H6">
-        <v>17.07</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
         <v>45.6</v>
       </c>
     </row>
@@ -1118,134 +1145,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>711.38</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2">
         <v>711.38</v>
       </c>
       <c r="D2">
+        <v>711.38</v>
+      </c>
+      <c r="E2">
         <v>716.13</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>38.49</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>754.62</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>68.63</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.62</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>27.47</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>499.62</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>597.34</v>
-      </c>
-      <c r="M2">
-        <v>157.28</v>
       </c>
       <c r="N2">
         <v>157.28</v>
       </c>
       <c r="O2">
+        <v>157.28</v>
+      </c>
+      <c r="P2">
         <v>37.64</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-1.6</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>36.04</v>
-      </c>
-      <c r="R2">
-        <v>121.24</v>
       </c>
       <c r="S2">
         <v>121.24</v>
@@ -1254,66 +1284,69 @@
         <v>121.24</v>
       </c>
       <c r="U2">
+        <v>121.24</v>
+      </c>
+      <c r="V2">
         <v>30.3</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>30.02</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>602.02</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
         <v>602.02</v>
       </c>
       <c r="D3">
+        <v>602.02</v>
+      </c>
+      <c r="E3">
         <v>603.13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>49.02</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>652.15</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>75.27</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.9399999999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>17.28</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>442.78</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>536.27</v>
-      </c>
-      <c r="M3">
-        <v>115.88</v>
       </c>
       <c r="N3">
         <v>115.88</v>
       </c>
       <c r="O3">
+        <v>115.88</v>
+      </c>
+      <c r="P3">
         <v>29.94</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-6.52</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>23.42</v>
-      </c>
-      <c r="R3">
-        <v>92.45999999999999</v>
       </c>
       <c r="S3">
         <v>92.45999999999999</v>
@@ -1322,66 +1355,69 @@
         <v>92.45999999999999</v>
       </c>
       <c r="U3">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="V3">
         <v>23.08</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>23.06</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>689.58</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
         <v>689.58</v>
       </c>
       <c r="D4">
+        <v>689.58</v>
+      </c>
+      <c r="E4">
         <v>690.91</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>78.8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>769.71</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>78.68000000000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.48</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>16.84</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>488.18</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>584.1799999999999</v>
-      </c>
-      <c r="M4">
-        <v>185.53</v>
       </c>
       <c r="N4">
         <v>185.53</v>
       </c>
       <c r="O4">
+        <v>185.53</v>
+      </c>
+      <c r="P4">
         <v>52.49</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-10.84</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>41.65</v>
-      </c>
-      <c r="R4">
-        <v>143.89</v>
       </c>
       <c r="S4">
         <v>143.89</v>
@@ -1390,18 +1426,21 @@
         <v>143.89</v>
       </c>
       <c r="U4">
+        <v>143.89</v>
+      </c>
+      <c r="V4">
         <v>35.77</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>35.73</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>741.74</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5">
         <v>741.74</v>
@@ -1410,46 +1449,46 @@
         <v>741.74</v>
       </c>
       <c r="E5">
+        <v>741.74</v>
+      </c>
+      <c r="F5">
         <v>41.17</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>782.91</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>121.39</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.93</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>18.28</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>501.38</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>641.98</v>
-      </c>
-      <c r="M5">
-        <v>140.93</v>
       </c>
       <c r="N5">
         <v>140.93</v>
       </c>
       <c r="O5">
+        <v>140.93</v>
+      </c>
+      <c r="P5">
         <v>34.34</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-0.98</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>33.36</v>
-      </c>
-      <c r="R5">
-        <v>107.57</v>
       </c>
       <c r="S5">
         <v>107.57</v>
@@ -1458,18 +1497,21 @@
         <v>107.57</v>
       </c>
       <c r="U5">
+        <v>107.57</v>
+      </c>
+      <c r="V5">
         <v>26.63</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>26.61</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>880.8099999999999</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>880.8099999999999</v>
@@ -1478,46 +1520,46 @@
         <v>880.8099999999999</v>
       </c>
       <c r="E6">
+        <v>880.8099999999999</v>
+      </c>
+      <c r="F6">
         <v>67.66</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>948.47</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>172.1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.67</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>27.48</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>616.3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>817.55</v>
-      </c>
-      <c r="M6">
-        <v>130.92</v>
       </c>
       <c r="N6">
         <v>130.92</v>
       </c>
       <c r="O6">
+        <v>130.92</v>
+      </c>
+      <c r="P6">
         <v>30.52</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.05</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>30.57</v>
-      </c>
-      <c r="R6">
-        <v>100.35</v>
       </c>
       <c r="S6">
         <v>100.35</v>
@@ -1526,9 +1568,12 @@
         <v>100.35</v>
       </c>
       <c r="U6">
+        <v>100.35</v>
+      </c>
+      <c r="V6">
         <v>24.82</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>24.69</v>
       </c>
     </row>
@@ -1547,84 +1592,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>156.75</v>
@@ -1689,13 +1734,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>177.6</v>
@@ -1760,13 +1805,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>175.67</v>
@@ -1831,13 +1876,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>231.72</v>
@@ -1902,13 +1947,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>220.17</v>
@@ -1973,13 +2018,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>235.41</v>
@@ -2044,13 +2089,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>203.37</v>
@@ -2115,13 +2160,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>221.86</v>
@@ -2186,13 +2231,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>196.19</v>
@@ -2257,13 +2302,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>219.46</v>
@@ -2333,345 +2378,363 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>178.99</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>46.58</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>39.72</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>39.31</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>30.3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>26.02</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.18</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>21.96</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>16.92</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16.08</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>12.89</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>25.85</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>21.08</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>74.15000000000001</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>150.26</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>33.41</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>29.1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>28.87</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>23.03</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.23</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>19.36</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>19.21</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>15.32</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13.83</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10.71</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>195.18</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>164.45</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-95.18000000000001</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>171.08</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>50.23</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>46.06</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>45.94</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>35.63</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>29.36</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>26.92</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>26.85</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20.82</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>18.24</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14.55</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>25.2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>22.56</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>74.8</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>183.51</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>39.62</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>35.1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>34.87</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>26.61</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21.58</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19.12</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>18.99</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>14.5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>12.53</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>9.73</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>37.53</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>32.08</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>62.47</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>217.75</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>39.57</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>32.78</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>32.37</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>24.81</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>18.17</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15.05</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14.86</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>11.39</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10.78</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8.44</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>40.3</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>31.64</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>59.7</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3925.97</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>24.53</v>
       </c>
     </row>
